--- a/neuron summary.xlsx
+++ b/neuron summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uma Iyer\Documents\ANALYSIS-FOLDER\Neural_Network_Charity_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE3973E-622F-420D-818F-10DC747DCFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC36D82-F4B8-4EDB-A884-9088E239A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE9233A-008E-4A4E-B56B-E80104DD791D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE9233A-008E-4A4E-B56B-E80104DD791D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,219 +484,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBE35EE-AE17-477C-8658-2FB878A4D813}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C3" s="4">
         <v>43</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D3" s="4">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E3" s="4">
         <v>43</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F3" s="4">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C4" s="4">
         <v>85</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D4" s="4">
         <v>85</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="4">
-        <f>E2*3</f>
+      <c r="F4" s="4">
+        <f>F3*3</f>
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C6" s="4">
         <v>55</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D6" s="4">
         <v>55</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="E5" s="4">
-        <f>E2*2</f>
+      <c r="F6" s="4">
+        <f>F3*2</f>
         <v>790</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>55</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E8" s="4">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F8" s="4">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C12" s="6">
         <v>0.72</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D12" s="6">
         <v>0.73</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E12" s="6">
         <v>0.72</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F12" s="6">
         <v>0.79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C13" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D13" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E13" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F13" s="6">
         <v>0.5</v>
       </c>
     </row>

--- a/neuron summary.xlsx
+++ b/neuron summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uma Iyer\Documents\ANALYSIS-FOLDER\Neural_Network_Charity_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC36D82-F4B8-4EDB-A884-9088E239A6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C30BCE-E0E8-4322-92E6-74B4BBDB1675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE9233A-008E-4A4E-B56B-E80104DD791D}"/>
+    <workbookView xWindow="38535" yWindow="420" windowWidth="14400" windowHeight="15600" xr2:uid="{9CE9233A-008E-4A4E-B56B-E80104DD791D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>0.72</v>
       </c>
       <c r="D12" s="6">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E12" s="6">
         <v>0.72</v>
@@ -691,7 +691,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D13" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="6">
         <v>0.55000000000000004</v>
